--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.585264455656089</v>
+        <v>11.81256866666667</v>
       </c>
       <c r="H2">
-        <v>9.585264455656089</v>
+        <v>35.437706</v>
       </c>
       <c r="I2">
-        <v>0.01380672194613315</v>
+        <v>0.01569049050213386</v>
       </c>
       <c r="J2">
-        <v>0.01380672194613315</v>
+        <v>0.01569049050213386</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06386428988939449</v>
+        <v>0.1067053333333333</v>
       </c>
       <c r="N2">
-        <v>0.06386428988939449</v>
+        <v>0.320116</v>
       </c>
       <c r="O2">
-        <v>0.0003935133068412217</v>
+        <v>0.0004703131782773351</v>
       </c>
       <c r="P2">
-        <v>0.0003935133068412217</v>
+        <v>0.000470313178277335</v>
       </c>
       <c r="Q2">
-        <v>0.6121561078625296</v>
+        <v>1.260464077099555</v>
       </c>
       <c r="R2">
-        <v>0.6121561078625296</v>
+        <v>11.344176693896</v>
       </c>
       <c r="S2">
-        <v>5.433128809660124E-06</v>
+        <v>7.379444456788916E-06</v>
       </c>
       <c r="T2">
-        <v>5.433128809660124E-06</v>
+        <v>7.379444456788914E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.585264455656089</v>
+        <v>11.81256866666667</v>
       </c>
       <c r="H3">
-        <v>9.585264455656089</v>
+        <v>35.437706</v>
       </c>
       <c r="I3">
-        <v>0.01380672194613315</v>
+        <v>0.01569049050213386</v>
       </c>
       <c r="J3">
-        <v>0.01380672194613315</v>
+        <v>0.01569049050213386</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>55.795630069319</v>
+        <v>0.08113566666666668</v>
       </c>
       <c r="N3">
-        <v>55.795630069319</v>
+        <v>0.243407</v>
       </c>
       <c r="O3">
-        <v>0.3437965556947868</v>
+        <v>0.0003576126147551242</v>
       </c>
       <c r="P3">
-        <v>0.3437965556947868</v>
+        <v>0.0003576126147551241</v>
       </c>
       <c r="Q3">
-        <v>534.8158696843795</v>
+        <v>0.9584206338157778</v>
       </c>
       <c r="R3">
-        <v>534.8158696843795</v>
+        <v>8.625785704342</v>
       </c>
       <c r="S3">
-        <v>0.004746703450516201</v>
+        <v>5.611117335258531E-06</v>
       </c>
       <c r="T3">
-        <v>0.004746703450516201</v>
+        <v>5.611117335258529E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.585264455656089</v>
+        <v>11.81256866666667</v>
       </c>
       <c r="H4">
-        <v>9.585264455656089</v>
+        <v>35.437706</v>
       </c>
       <c r="I4">
-        <v>0.01380672194613315</v>
+        <v>0.01569049050213386</v>
       </c>
       <c r="J4">
-        <v>0.01380672194613315</v>
+        <v>0.01569049050213386</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>106.433085787676</v>
+        <v>57.87945166666666</v>
       </c>
       <c r="N4">
-        <v>106.433085787676</v>
+        <v>173.638355</v>
       </c>
       <c r="O4">
-        <v>0.6558099309983719</v>
+        <v>0.2551087937213329</v>
       </c>
       <c r="P4">
-        <v>0.6558099309983719</v>
+        <v>0.2551087937213328</v>
       </c>
       <c r="Q4">
-        <v>1020.189274106406</v>
+        <v>683.7049972015143</v>
       </c>
       <c r="R4">
-        <v>1020.189274106406</v>
+        <v>6153.344974813629</v>
       </c>
       <c r="S4">
-        <v>0.009054585366807288</v>
+        <v>0.0040027821048954</v>
       </c>
       <c r="T4">
-        <v>0.009054585366807288</v>
+        <v>0.004002782104895399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.7464858536684</v>
+        <v>11.81256866666667</v>
       </c>
       <c r="H5">
-        <v>89.7464858536684</v>
+        <v>35.437706</v>
       </c>
       <c r="I5">
-        <v>0.129271840287411</v>
+        <v>0.01569049050213386</v>
       </c>
       <c r="J5">
-        <v>0.129271840287411</v>
+        <v>0.01569049050213386</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06386428988939449</v>
+        <v>168.748281</v>
       </c>
       <c r="N5">
-        <v>0.06386428988939449</v>
+        <v>506.244843</v>
       </c>
       <c r="O5">
-        <v>0.0003935133068412217</v>
+        <v>0.7437729482370158</v>
       </c>
       <c r="P5">
-        <v>0.0003935133068412217</v>
+        <v>0.7437729482370156</v>
       </c>
       <c r="Q5">
-        <v>5.731595589113121</v>
+        <v>1993.350656694462</v>
       </c>
       <c r="R5">
-        <v>5.731595589113121</v>
+        <v>17940.15591025016</v>
       </c>
       <c r="S5">
-        <v>5.087018935294939E-05</v>
+        <v>0.011670162380057</v>
       </c>
       <c r="T5">
-        <v>5.087018935294939E-05</v>
+        <v>0.01167016238005699</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>89.7464858536684</v>
+        <v>11.81256866666667</v>
       </c>
       <c r="H6">
-        <v>89.7464858536684</v>
+        <v>35.437706</v>
       </c>
       <c r="I6">
-        <v>0.129271840287411</v>
+        <v>0.01569049050213386</v>
       </c>
       <c r="J6">
-        <v>0.129271840287411</v>
+        <v>0.01569049050213386</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>55.795630069319</v>
+        <v>0.065871</v>
       </c>
       <c r="N6">
-        <v>55.795630069319</v>
+        <v>0.197613</v>
       </c>
       <c r="O6">
-        <v>0.3437965556947868</v>
+        <v>0.0002903322486189976</v>
       </c>
       <c r="P6">
-        <v>0.3437965556947868</v>
+        <v>0.0002903322486189975</v>
       </c>
       <c r="Q6">
-        <v>5007.461724712653</v>
+        <v>0.778105710642</v>
       </c>
       <c r="R6">
-        <v>5007.461724712653</v>
+        <v>7.002951395777999</v>
       </c>
       <c r="S6">
-        <v>0.0444432134391385</v>
+        <v>4.555455389419549E-06</v>
       </c>
       <c r="T6">
-        <v>0.0444432134391385</v>
+        <v>4.555455389419547E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>89.7464858536684</v>
+        <v>90.439374</v>
       </c>
       <c r="H7">
-        <v>89.7464858536684</v>
+        <v>271.318122</v>
       </c>
       <c r="I7">
-        <v>0.129271840287411</v>
+        <v>0.1201295144865696</v>
       </c>
       <c r="J7">
-        <v>0.129271840287411</v>
+        <v>0.1201295144865697</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>106.433085787676</v>
+        <v>0.1067053333333333</v>
       </c>
       <c r="N7">
-        <v>106.433085787676</v>
+        <v>0.320116</v>
       </c>
       <c r="O7">
-        <v>0.6558099309983719</v>
+        <v>0.0004703131782773351</v>
       </c>
       <c r="P7">
-        <v>0.6558099309983719</v>
+        <v>0.000470313178277335</v>
       </c>
       <c r="Q7">
-        <v>9551.995428005941</v>
+        <v>9.650363549128</v>
       </c>
       <c r="R7">
-        <v>9551.995428005941</v>
+        <v>86.85327194215201</v>
       </c>
       <c r="S7">
-        <v>0.0847777566589196</v>
+        <v>5.649849376309174E-05</v>
       </c>
       <c r="T7">
-        <v>0.0847777566589196</v>
+        <v>5.649849376309173E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>361.745799061224</v>
+        <v>90.439374</v>
       </c>
       <c r="H8">
-        <v>361.745799061224</v>
+        <v>271.318122</v>
       </c>
       <c r="I8">
-        <v>0.521062688038085</v>
+        <v>0.1201295144865696</v>
       </c>
       <c r="J8">
-        <v>0.521062688038085</v>
+        <v>0.1201295144865697</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.06386428988939449</v>
+        <v>0.08113566666666668</v>
       </c>
       <c r="N8">
-        <v>0.06386428988939449</v>
+        <v>0.243407</v>
       </c>
       <c r="O8">
-        <v>0.0003935133068412217</v>
+        <v>0.0003576126147551242</v>
       </c>
       <c r="P8">
-        <v>0.0003935133068412217</v>
+        <v>0.0003576126147551241</v>
       </c>
       <c r="Q8">
-        <v>23.10263857751666</v>
+        <v>7.337858902406001</v>
       </c>
       <c r="R8">
-        <v>23.10263857751666</v>
+        <v>66.04073012165401</v>
       </c>
       <c r="S8">
-        <v>0.0002050451014414427</v>
+        <v>4.295982978480574E-05</v>
       </c>
       <c r="T8">
-        <v>0.0002050451014414427</v>
+        <v>4.295982978480573E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>361.745799061224</v>
+        <v>90.439374</v>
       </c>
       <c r="H9">
-        <v>361.745799061224</v>
+        <v>271.318122</v>
       </c>
       <c r="I9">
-        <v>0.521062688038085</v>
+        <v>0.1201295144865696</v>
       </c>
       <c r="J9">
-        <v>0.521062688038085</v>
+        <v>0.1201295144865697</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.795630069319</v>
+        <v>57.87945166666666</v>
       </c>
       <c r="N9">
-        <v>55.795630069319</v>
+        <v>173.638355</v>
       </c>
       <c r="O9">
-        <v>0.3437965556947868</v>
+        <v>0.2551087937213329</v>
       </c>
       <c r="P9">
-        <v>0.3437965556947868</v>
+        <v>0.2551087937213328</v>
       </c>
       <c r="Q9">
-        <v>20183.83478355026</v>
+        <v>5234.581376196589</v>
       </c>
       <c r="R9">
-        <v>20183.83478355026</v>
+        <v>47111.23238576931</v>
       </c>
       <c r="S9">
-        <v>0.1791395574485608</v>
+        <v>0.03064609553099816</v>
       </c>
       <c r="T9">
-        <v>0.1791395574485608</v>
+        <v>0.03064609553099816</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,57 +1030,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>361.745799061224</v>
+        <v>90.439374</v>
       </c>
       <c r="H10">
-        <v>361.745799061224</v>
+        <v>271.318122</v>
       </c>
       <c r="I10">
-        <v>0.521062688038085</v>
+        <v>0.1201295144865696</v>
       </c>
       <c r="J10">
-        <v>0.521062688038085</v>
+        <v>0.1201295144865697</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>106.433085787676</v>
+        <v>168.748281</v>
       </c>
       <c r="N10">
-        <v>106.433085787676</v>
+        <v>506.244843</v>
       </c>
       <c r="O10">
-        <v>0.6558099309983719</v>
+        <v>0.7437729482370158</v>
       </c>
       <c r="P10">
-        <v>0.6558099309983719</v>
+        <v>0.7437729482370156</v>
       </c>
       <c r="Q10">
-        <v>38501.72166481466</v>
+        <v>15261.48889721609</v>
       </c>
       <c r="R10">
-        <v>38501.72166481466</v>
+        <v>137353.4000749449</v>
       </c>
       <c r="S10">
-        <v>0.3417180854880827</v>
+        <v>0.0893490831599572</v>
       </c>
       <c r="T10">
-        <v>0.3417180854880827</v>
+        <v>0.08934908315995718</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>230.999468053718</v>
+        <v>90.439374</v>
       </c>
       <c r="H11">
-        <v>230.999468053718</v>
+        <v>271.318122</v>
       </c>
       <c r="I11">
-        <v>0.3327342130075897</v>
+        <v>0.1201295144865696</v>
       </c>
       <c r="J11">
-        <v>0.3327342130075897</v>
+        <v>0.1201295144865697</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.06386428988939449</v>
+        <v>0.065871</v>
       </c>
       <c r="N11">
-        <v>0.06386428988939449</v>
+        <v>0.197613</v>
       </c>
       <c r="O11">
-        <v>0.0003935133068412217</v>
+        <v>0.0002903322486189976</v>
       </c>
       <c r="P11">
-        <v>0.0003935133068412217</v>
+        <v>0.0002903322486189975</v>
       </c>
       <c r="Q11">
-        <v>14.75261699207857</v>
+        <v>5.957332004754</v>
       </c>
       <c r="R11">
-        <v>14.75261699207857</v>
+        <v>53.615988042786</v>
       </c>
       <c r="S11">
-        <v>0.0001309353404598281</v>
+        <v>3.487747206639421E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001309353404598281</v>
+        <v>3.48774720663942E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>230.999468053718</v>
+        <v>381.646276</v>
       </c>
       <c r="H12">
-        <v>230.999468053718</v>
+        <v>1144.938828</v>
       </c>
       <c r="I12">
-        <v>0.3327342130075897</v>
+        <v>0.5069360811971936</v>
       </c>
       <c r="J12">
-        <v>0.3327342130075897</v>
+        <v>0.5069360811971936</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.795630069319</v>
+        <v>0.1067053333333333</v>
       </c>
       <c r="N12">
-        <v>55.795630069319</v>
+        <v>0.320116</v>
       </c>
       <c r="O12">
-        <v>0.3437965556947868</v>
+        <v>0.0004703131782773351</v>
       </c>
       <c r="P12">
-        <v>0.3437965556947868</v>
+        <v>0.000470313178277335</v>
       </c>
       <c r="Q12">
-        <v>12888.76086573472</v>
+        <v>40.72369309600533</v>
       </c>
       <c r="R12">
-        <v>12888.76086573472</v>
+        <v>366.5132378640481</v>
       </c>
       <c r="S12">
-        <v>0.1143928763938249</v>
+        <v>0.0002384187195313094</v>
       </c>
       <c r="T12">
-        <v>0.1143928763938249</v>
+        <v>0.0002384187195313093</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>230.999468053718</v>
+        <v>381.646276</v>
       </c>
       <c r="H13">
-        <v>230.999468053718</v>
+        <v>1144.938828</v>
       </c>
       <c r="I13">
-        <v>0.3327342130075897</v>
+        <v>0.5069360811971936</v>
       </c>
       <c r="J13">
-        <v>0.3327342130075897</v>
+        <v>0.5069360811971936</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>106.433085787676</v>
+        <v>0.08113566666666668</v>
       </c>
       <c r="N13">
-        <v>106.433085787676</v>
+        <v>0.243407</v>
       </c>
       <c r="O13">
-        <v>0.6558099309983719</v>
+        <v>0.0003576126147551242</v>
       </c>
       <c r="P13">
-        <v>0.6558099309983719</v>
+        <v>0.0003576126147551241</v>
       </c>
       <c r="Q13">
-        <v>24585.98620026889</v>
+        <v>30.96512503411067</v>
       </c>
       <c r="R13">
-        <v>24585.98620026889</v>
+        <v>278.686125306996</v>
       </c>
       <c r="S13">
-        <v>0.218210401273305</v>
+        <v>0.0001812867375106443</v>
       </c>
       <c r="T13">
-        <v>0.218210401273305</v>
+        <v>0.0001812867375106443</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.16919779270872</v>
+        <v>381.646276</v>
       </c>
       <c r="H14">
-        <v>2.16919779270872</v>
+        <v>1144.938828</v>
       </c>
       <c r="I14">
-        <v>0.003124536720781075</v>
+        <v>0.5069360811971936</v>
       </c>
       <c r="J14">
-        <v>0.003124536720781075</v>
+        <v>0.5069360811971936</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.06386428988939449</v>
+        <v>57.87945166666666</v>
       </c>
       <c r="N14">
-        <v>0.06386428988939449</v>
+        <v>173.638355</v>
       </c>
       <c r="O14">
-        <v>0.0003935133068412217</v>
+        <v>0.2551087937213329</v>
       </c>
       <c r="P14">
-        <v>0.0003935133068412217</v>
+        <v>0.2551087937213328</v>
       </c>
       <c r="Q14">
-        <v>0.1385342766609844</v>
+        <v>22089.47718550533</v>
       </c>
       <c r="R14">
-        <v>0.1385342766609844</v>
+        <v>198805.2946695479</v>
       </c>
       <c r="S14">
-        <v>1.229546777341388E-06</v>
+        <v>0.1293238521680357</v>
       </c>
       <c r="T14">
-        <v>1.229546777341388E-06</v>
+        <v>0.1293238521680357</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.16919779270872</v>
+        <v>381.646276</v>
       </c>
       <c r="H15">
-        <v>2.16919779270872</v>
+        <v>1144.938828</v>
       </c>
       <c r="I15">
-        <v>0.003124536720781075</v>
+        <v>0.5069360811971936</v>
       </c>
       <c r="J15">
-        <v>0.003124536720781075</v>
+        <v>0.5069360811971936</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>55.795630069319</v>
+        <v>168.748281</v>
       </c>
       <c r="N15">
-        <v>55.795630069319</v>
+        <v>506.244843</v>
       </c>
       <c r="O15">
-        <v>0.3437965556947868</v>
+        <v>0.7437729482370158</v>
       </c>
       <c r="P15">
-        <v>0.3437965556947868</v>
+        <v>0.7437729482370156</v>
       </c>
       <c r="Q15">
-        <v>121.0317575891591</v>
+        <v>64402.15302505155</v>
       </c>
       <c r="R15">
-        <v>121.0317575891591</v>
+        <v>579619.3772254641</v>
       </c>
       <c r="S15">
-        <v>0.001074204962746417</v>
+        <v>0.3770453436797559</v>
       </c>
       <c r="T15">
-        <v>0.001074204962746417</v>
+        <v>0.3770453436797558</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>381.646276</v>
+      </c>
+      <c r="H16">
+        <v>1144.938828</v>
+      </c>
+      <c r="I16">
+        <v>0.5069360811971936</v>
+      </c>
+      <c r="J16">
+        <v>0.5069360811971936</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.065871</v>
+      </c>
+      <c r="N16">
+        <v>0.197613</v>
+      </c>
+      <c r="O16">
+        <v>0.0002903322486189976</v>
+      </c>
+      <c r="P16">
+        <v>0.0002903322486189975</v>
+      </c>
+      <c r="Q16">
+        <v>25.139421846396</v>
+      </c>
+      <c r="R16">
+        <v>226.254796617564</v>
+      </c>
+      <c r="S16">
+        <v>0.000147179892360084</v>
+      </c>
+      <c r="T16">
+        <v>0.0001471798923600839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.16919779270872</v>
-      </c>
-      <c r="H16">
-        <v>2.16919779270872</v>
-      </c>
-      <c r="I16">
-        <v>0.003124536720781075</v>
-      </c>
-      <c r="J16">
-        <v>0.003124536720781075</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>106.433085787676</v>
-      </c>
-      <c r="N16">
-        <v>106.433085787676</v>
-      </c>
-      <c r="O16">
-        <v>0.6558099309983719</v>
-      </c>
-      <c r="P16">
-        <v>0.6558099309983719</v>
-      </c>
-      <c r="Q16">
-        <v>230.8744147618046</v>
-      </c>
-      <c r="R16">
-        <v>230.8744147618046</v>
-      </c>
-      <c r="S16">
-        <v>0.002049102211257316</v>
-      </c>
-      <c r="T16">
-        <v>0.002049102211257316</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>266.141622</v>
+      </c>
+      <c r="H17">
+        <v>798.4248660000001</v>
+      </c>
+      <c r="I17">
+        <v>0.3535126618139589</v>
+      </c>
+      <c r="J17">
+        <v>0.3535126618139589</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1067053333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.320116</v>
+      </c>
+      <c r="O17">
+        <v>0.0004703131782773351</v>
+      </c>
+      <c r="P17">
+        <v>0.000470313178277335</v>
+      </c>
+      <c r="Q17">
+        <v>28.398730489384</v>
+      </c>
+      <c r="R17">
+        <v>255.588574404456</v>
+      </c>
+      <c r="S17">
+        <v>0.0001662616635390038</v>
+      </c>
+      <c r="T17">
+        <v>0.0001662616635390037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>266.141622</v>
+      </c>
+      <c r="H18">
+        <v>798.4248660000001</v>
+      </c>
+      <c r="I18">
+        <v>0.3535126618139589</v>
+      </c>
+      <c r="J18">
+        <v>0.3535126618139589</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.08113566666666668</v>
+      </c>
+      <c r="N18">
+        <v>0.243407</v>
+      </c>
+      <c r="O18">
+        <v>0.0003576126147551242</v>
+      </c>
+      <c r="P18">
+        <v>0.0003576126147551241</v>
+      </c>
+      <c r="Q18">
+        <v>21.59357792871801</v>
+      </c>
+      <c r="R18">
+        <v>194.342201358462</v>
+      </c>
+      <c r="S18">
+        <v>0.0001264205873403338</v>
+      </c>
+      <c r="T18">
+        <v>0.0001264205873403337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>266.141622</v>
+      </c>
+      <c r="H19">
+        <v>798.4248660000001</v>
+      </c>
+      <c r="I19">
+        <v>0.3535126618139589</v>
+      </c>
+      <c r="J19">
+        <v>0.3535126618139589</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>57.87945166666666</v>
+      </c>
+      <c r="N19">
+        <v>173.638355</v>
+      </c>
+      <c r="O19">
+        <v>0.2551087937213329</v>
+      </c>
+      <c r="P19">
+        <v>0.2551087937213328</v>
+      </c>
+      <c r="Q19">
+        <v>15404.13114703727</v>
+      </c>
+      <c r="R19">
+        <v>138637.1803233354</v>
+      </c>
+      <c r="S19">
+        <v>0.09018418872057656</v>
+      </c>
+      <c r="T19">
+        <v>0.09018418872057653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>266.141622</v>
+      </c>
+      <c r="H20">
+        <v>798.4248660000001</v>
+      </c>
+      <c r="I20">
+        <v>0.3535126618139589</v>
+      </c>
+      <c r="J20">
+        <v>0.3535126618139589</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>168.748281</v>
+      </c>
+      <c r="N20">
+        <v>506.244843</v>
+      </c>
+      <c r="O20">
+        <v>0.7437729482370158</v>
+      </c>
+      <c r="P20">
+        <v>0.7437729482370156</v>
+      </c>
+      <c r="Q20">
+        <v>44910.94121505179</v>
+      </c>
+      <c r="R20">
+        <v>404198.4709354661</v>
+      </c>
+      <c r="S20">
+        <v>0.2629331547164833</v>
+      </c>
+      <c r="T20">
+        <v>0.2629331547164832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>266.141622</v>
+      </c>
+      <c r="H21">
+        <v>798.4248660000001</v>
+      </c>
+      <c r="I21">
+        <v>0.3535126618139589</v>
+      </c>
+      <c r="J21">
+        <v>0.3535126618139589</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.065871</v>
+      </c>
+      <c r="N21">
+        <v>0.197613</v>
+      </c>
+      <c r="O21">
+        <v>0.0002903322486189976</v>
+      </c>
+      <c r="P21">
+        <v>0.0002903322486189975</v>
+      </c>
+      <c r="Q21">
+        <v>17.531014782762</v>
+      </c>
+      <c r="R21">
+        <v>157.779133044858</v>
+      </c>
+      <c r="S21">
+        <v>0.0001026361260197339</v>
+      </c>
+      <c r="T21">
+        <v>0.0001026361260197339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.809069</v>
+      </c>
+      <c r="H22">
+        <v>8.427206999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.003731252000144026</v>
+      </c>
+      <c r="J22">
+        <v>0.003731252000144027</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1067053333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.320116</v>
+      </c>
+      <c r="O22">
+        <v>0.0004703131782773351</v>
+      </c>
+      <c r="P22">
+        <v>0.000470313178277335</v>
+      </c>
+      <c r="Q22">
+        <v>0.2997426440013333</v>
+      </c>
+      <c r="R22">
+        <v>2.697683796012</v>
+      </c>
+      <c r="S22">
+        <v>1.754856987141401E-06</v>
+      </c>
+      <c r="T22">
+        <v>1.754856987141401E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.809069</v>
+      </c>
+      <c r="H23">
+        <v>8.427206999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.003731252000144026</v>
+      </c>
+      <c r="J23">
+        <v>0.003731252000144027</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.08113566666666668</v>
+      </c>
+      <c r="N23">
+        <v>0.243407</v>
+      </c>
+      <c r="O23">
+        <v>0.0003576126147551242</v>
+      </c>
+      <c r="P23">
+        <v>0.0003576126147551241</v>
+      </c>
+      <c r="Q23">
+        <v>0.2279156860276667</v>
+      </c>
+      <c r="R23">
+        <v>2.051241174249</v>
+      </c>
+      <c r="S23">
+        <v>1.334342784081792E-06</v>
+      </c>
+      <c r="T23">
+        <v>1.334342784081792E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.809069</v>
+      </c>
+      <c r="H24">
+        <v>8.427206999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.003731252000144026</v>
+      </c>
+      <c r="J24">
+        <v>0.003731252000144027</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>57.87945166666666</v>
+      </c>
+      <c r="N24">
+        <v>173.638355</v>
+      </c>
+      <c r="O24">
+        <v>0.2551087937213329</v>
+      </c>
+      <c r="P24">
+        <v>0.2551087937213328</v>
+      </c>
+      <c r="Q24">
+        <v>162.5873734138316</v>
+      </c>
+      <c r="R24">
+        <v>1463.286360724485</v>
+      </c>
+      <c r="S24">
+        <v>0.0009518751968270532</v>
+      </c>
+      <c r="T24">
+        <v>0.0009518751968270531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.809069</v>
+      </c>
+      <c r="H25">
+        <v>8.427206999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.003731252000144026</v>
+      </c>
+      <c r="J25">
+        <v>0.003731252000144027</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>168.748281</v>
+      </c>
+      <c r="N25">
+        <v>506.244843</v>
+      </c>
+      <c r="O25">
+        <v>0.7437729482370158</v>
+      </c>
+      <c r="P25">
+        <v>0.7437729482370156</v>
+      </c>
+      <c r="Q25">
+        <v>474.0255649603889</v>
+      </c>
+      <c r="R25">
+        <v>4266.230084643501</v>
+      </c>
+      <c r="S25">
+        <v>0.002775204300762384</v>
+      </c>
+      <c r="T25">
+        <v>0.002775204300762384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.809069</v>
+      </c>
+      <c r="H26">
+        <v>8.427206999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.003731252000144026</v>
+      </c>
+      <c r="J26">
+        <v>0.003731252000144027</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.065871</v>
+      </c>
+      <c r="N26">
+        <v>0.197613</v>
+      </c>
+      <c r="O26">
+        <v>0.0002903322486189976</v>
+      </c>
+      <c r="P26">
+        <v>0.0002903322486189975</v>
+      </c>
+      <c r="Q26">
+        <v>0.185036184099</v>
+      </c>
+      <c r="R26">
+        <v>1.665325656891</v>
+      </c>
+      <c r="S26">
+        <v>1.083302783365948E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.083302783365947E-06</v>
       </c>
     </row>
   </sheetData>
